--- a/receiptSetting/批量录入发票模板.xlsx
+++ b/receiptSetting/批量录入发票模板.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\customReceipts\receiptSetting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60313E39-DD84-4F6B-8C63-3A582783A0BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E81F6B-76F4-4CE8-8EE1-D43C7BBC7C72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{734AFDE5-6A00-4A3F-A4D6-6CA5376313B1}"/>
   </bookViews>
   <sheets>
-    <sheet name="付款申请单" sheetId="1" r:id="rId1"/>
+    <sheet name="旅游团款结算单" sheetId="2" r:id="rId1"/>
+    <sheet name="付款申请单" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +179,74 @@
   </si>
   <si>
     <t>陈星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅游综合费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垫付票款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府调节基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计调负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190125H双岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Windows\Fonts\xjlFont.fon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凭证字号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记-00023</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,6 +254,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -224,15 +296,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -246,12 +325,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD24C90E-C93F-4BC3-BC8C-CC3CFD184A77}" name="表1_3" displayName="表1_3" ref="A1:F24" totalsRowShown="0">
+  <autoFilter ref="A1:F24" xr:uid="{8B162019-E726-4FA8-9C00-BE0FAB7EB13F}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{C8943C60-DF80-42E9-B026-0C33B3FB6FAC}" name="值"/>
+    <tableColumn id="2" xr3:uid="{5EBA27D5-C984-4809-98CA-C941E139833F}" name="字体"/>
+    <tableColumn id="3" xr3:uid="{F6A40C4F-E57F-4481-A8BC-748AAFA9C9DE}" name="大小"/>
+    <tableColumn id="4" xr3:uid="{EEBCC051-A7C1-4C29-AEC3-7C787D6B5728}" name="x"/>
+    <tableColumn id="5" xr3:uid="{ACA7D893-ADB8-4930-939F-500E7C9EA914}" name="y"/>
+    <tableColumn id="6" xr3:uid="{4911121C-C5E8-4CEB-9E16-C5CB38589A19}" name="字段"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BE6ABAEA-0322-41A0-B06A-6E8389A8231F}" name="表1" displayName="表1" ref="A1:F26" totalsRowShown="0">
   <autoFilter ref="A1:F26" xr:uid="{8B162019-E726-4FA8-9C00-BE0FAB7EB13F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9FD90DC6-B27B-4B43-803F-5228F9CB11AD}" name="值"/>
     <tableColumn id="2" xr3:uid="{BD6B91BE-9BAB-47E2-AE93-976E6A7324BD}" name="字体"/>
-    <tableColumn id="3" xr3:uid="{E0B32182-5361-46FC-8C67-5D585AD410C3}" name="大小"/>
+    <tableColumn id="3" xr3:uid="{E0B32182-5361-46FC-8C67-5D585AD410C3}" name="大小" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{87931E6C-4CC8-488C-8423-76ABD9048CF0}" name="x"/>
     <tableColumn id="5" xr3:uid="{2A3363FF-AF5C-4CDE-BC6A-094210DD2A19}" name="y"/>
     <tableColumn id="6" xr3:uid="{4021CD87-4313-4F4A-9396-D7CE114D75B9}" name="字段"/>
@@ -556,11 +650,402 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2001FD74-11FF-46B2-A393-579E6AB212A8}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.375" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>522</v>
+      </c>
+      <c r="E2">
+        <v>435</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>1860</v>
+      </c>
+      <c r="E3">
+        <v>425</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>2128</v>
+      </c>
+      <c r="E4">
+        <v>425</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>328</v>
+      </c>
+      <c r="E5">
+        <v>595</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>1157</v>
+      </c>
+      <c r="E6">
+        <v>595</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>1738</v>
+      </c>
+      <c r="E7">
+        <v>595</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>2012</v>
+      </c>
+      <c r="E8">
+        <v>595</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>25000</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>677</v>
+      </c>
+      <c r="E9">
+        <v>760</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>12450</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>693</v>
+      </c>
+      <c r="E10">
+        <v>899</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2586</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>1899</v>
+      </c>
+      <c r="E11">
+        <v>899</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>683</v>
+      </c>
+      <c r="E12">
+        <v>1080</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <f>D12+195</f>
+        <v>878</v>
+      </c>
+      <c r="E13">
+        <v>1080</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D16" si="0">D13+195</f>
+        <v>1073</v>
+      </c>
+      <c r="E14">
+        <v>1080</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1268</v>
+      </c>
+      <c r="E15">
+        <v>1080</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1463</v>
+      </c>
+      <c r="E16">
+        <v>1080</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>1867</v>
+      </c>
+      <c r="E17">
+        <v>1080</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>609</v>
+      </c>
+      <c r="E18">
+        <v>1337</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>1364</v>
+      </c>
+      <c r="E19">
+        <v>1337</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>2028</v>
+      </c>
+      <c r="E20">
+        <v>1337</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>1822</v>
+      </c>
+      <c r="E21">
+        <v>1456</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>1962</v>
+      </c>
+      <c r="E22">
+        <v>1456</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>2102</v>
+      </c>
+      <c r="E23">
+        <v>1456</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24">
+        <v>2032</v>
+      </c>
+      <c r="E24">
+        <v>181</v>
+      </c>
+      <c r="F24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C78DCC-BC19-4D35-B381-8CC9B7D4DA98}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -593,7 +1078,7 @@
       <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>12</v>
       </c>
       <c r="D2">
@@ -610,7 +1095,7 @@
       <c r="A3">
         <v>2019</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>12</v>
       </c>
       <c r="D3">
@@ -627,7 +1112,7 @@
       <c r="A4">
         <v>9</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>12</v>
       </c>
       <c r="D4">
@@ -644,7 +1129,7 @@
       <c r="A5">
         <v>9</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>12</v>
       </c>
       <c r="D5">
@@ -661,7 +1146,7 @@
       <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>12</v>
       </c>
       <c r="D6">
@@ -678,7 +1163,7 @@
       <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>12</v>
       </c>
       <c r="D7">
@@ -692,7 +1177,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C8">
+      <c r="C8" s="1">
         <v>12</v>
       </c>
       <c r="D8">
@@ -709,7 +1194,7 @@
       <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>12</v>
       </c>
       <c r="D9">
@@ -723,7 +1208,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C10">
+      <c r="C10" s="1">
         <v>12</v>
       </c>
       <c r="D10">
@@ -737,7 +1222,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C11">
+      <c r="C11" s="1">
         <v>12</v>
       </c>
       <c r="D11">
@@ -754,7 +1239,7 @@
       <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>12</v>
       </c>
       <c r="D12">
@@ -771,7 +1256,7 @@
       <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>12</v>
       </c>
       <c r="D13">
@@ -789,7 +1274,7 @@
       <c r="A14" t="s">
         <v>35</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>12</v>
       </c>
       <c r="D14">
@@ -807,7 +1292,7 @@
       <c r="A15" t="s">
         <v>35</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>12</v>
       </c>
       <c r="D15">
@@ -825,7 +1310,7 @@
       <c r="A16" t="s">
         <v>35</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>12</v>
       </c>
       <c r="D16">
@@ -843,7 +1328,7 @@
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>12</v>
       </c>
       <c r="D17">
@@ -861,7 +1346,7 @@
       <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>12</v>
       </c>
       <c r="D18">
@@ -879,7 +1364,7 @@
       <c r="A19" t="s">
         <v>35</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>12</v>
       </c>
       <c r="D19">
@@ -897,7 +1382,7 @@
       <c r="A20" t="s">
         <v>35</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>12</v>
       </c>
       <c r="D20">
@@ -915,7 +1400,7 @@
       <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>12</v>
       </c>
       <c r="D21">
@@ -933,7 +1418,7 @@
       <c r="A22" t="s">
         <v>35</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>12</v>
       </c>
       <c r="D22">
@@ -947,7 +1432,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C23">
+      <c r="C23" s="1">
         <v>12</v>
       </c>
       <c r="D23">
@@ -961,7 +1446,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C24">
+      <c r="C24" s="1">
         <v>12</v>
       </c>
       <c r="D24">
@@ -976,11 +1461,11 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C25">
+      <c r="C25" s="1">
         <v>12</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25:D26" si="1">D24+530</f>
+        <f t="shared" ref="D25" si="1">D24+530</f>
         <v>1420</v>
       </c>
       <c r="E25">
@@ -994,12 +1479,14 @@
       <c r="A26" t="s">
         <v>36</v>
       </c>
-      <c r="C26">
-        <v>12</v>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="1">
+        <v>48</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
-        <v>1950</v>
+        <v>2050</v>
       </c>
       <c r="E26">
         <v>1030</v>

--- a/receiptSetting/批量录入发票模板.xlsx
+++ b/receiptSetting/批量录入发票模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\customReceipts\receiptSetting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E81F6B-76F4-4CE8-8EE1-D43C7BBC7C72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE66839B-15C9-4839-8622-B0D73755E890}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{734AFDE5-6A00-4A3F-A4D6-6CA5376313B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{734AFDE5-6A00-4A3F-A4D6-6CA5376313B1}"/>
   </bookViews>
   <sheets>
     <sheet name="旅游团款结算单" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="55">
   <si>
     <t>值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,6 +247,10 @@
   </si>
   <si>
     <t>记-00023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Windows\Fonts\msyh.ttc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2001FD74-11FF-46B2-A393-579E6AB212A8}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -684,8 +688,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
       <c r="C2">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D2">
         <v>522</v>
@@ -698,8 +705,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
       <c r="C3">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>1860</v>
@@ -712,8 +722,11 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
       <c r="C4">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D4">
         <v>2128</v>
@@ -729,8 +742,11 @@
       <c r="A5" t="s">
         <v>50</v>
       </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
       <c r="C5">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>328</v>
@@ -746,8 +762,11 @@
       <c r="A6">
         <v>46</v>
       </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
       <c r="C6">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>1157</v>
@@ -763,8 +782,11 @@
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
       <c r="C7">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <v>1738</v>
@@ -780,8 +802,11 @@
       <c r="A8">
         <v>4</v>
       </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
       <c r="C8">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D8">
         <v>2012</v>
@@ -797,8 +822,11 @@
       <c r="A9">
         <v>25000</v>
       </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
       <c r="C9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D9">
         <v>677</v>
@@ -814,8 +842,11 @@
       <c r="A10">
         <v>12450</v>
       </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
       <c r="C10">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D10">
         <v>693</v>
@@ -831,8 +862,11 @@
       <c r="A11">
         <v>2586</v>
       </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
       <c r="C11">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>1899</v>
@@ -845,96 +879,117 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
       <c r="C12">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D12">
         <v>683</v>
       </c>
       <c r="E12">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
       <c r="C13">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D13">
         <f>D12+195</f>
         <v>878</v>
       </c>
       <c r="E13">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
       <c r="C14">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D14">
         <f t="shared" ref="D14:D16" si="0">D13+195</f>
         <v>1073</v>
       </c>
       <c r="E14">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
       <c r="C15">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
         <v>1268</v>
       </c>
       <c r="E15">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="F15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
       <c r="C16">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
         <v>1463</v>
       </c>
       <c r="E16">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="F16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
       <c r="C17">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D17">
         <v>1867</v>
       </c>
       <c r="E17">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="F17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
       <c r="C18">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D18">
         <v>609</v>
@@ -947,8 +1002,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
       <c r="C19">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D19">
         <v>1364</v>
@@ -961,8 +1019,11 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
       <c r="C20">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D20">
         <v>2028</v>
@@ -975,8 +1036,11 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
       <c r="C21">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D21">
         <v>1822</v>
@@ -989,8 +1053,11 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
       <c r="C22">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D22">
         <v>1962</v>
@@ -1003,8 +1070,11 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
       <c r="C23">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D23">
         <v>2102</v>
@@ -1019,6 +1089,12 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24">
+        <v>48</v>
       </c>
       <c r="D24">
         <v>2032</v>
@@ -1044,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C78DCC-BC19-4D35-B381-8CC9B7D4DA98}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1078,14 +1154,17 @@
       <c r="A2" t="s">
         <v>31</v>
       </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
       <c r="C2" s="1">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D2">
-        <v>490</v>
+        <v>903</v>
       </c>
       <c r="E2">
-        <v>220</v>
+        <v>410</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -1095,14 +1174,17 @@
       <c r="A3">
         <v>2019</v>
       </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
       <c r="C3" s="1">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D3">
-        <v>1040</v>
+        <v>2180</v>
       </c>
       <c r="E3">
-        <v>220</v>
+        <v>410</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -1112,14 +1194,17 @@
       <c r="A4">
         <v>9</v>
       </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
       <c r="C4" s="1">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D4">
-        <v>1265</v>
+        <v>2608</v>
       </c>
       <c r="E4">
-        <v>220</v>
+        <v>410</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -1129,14 +1214,17 @@
       <c r="A5">
         <v>9</v>
       </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
       <c r="C5" s="1">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D5">
-        <v>1464</v>
+        <v>3018</v>
       </c>
       <c r="E5">
-        <v>220</v>
+        <v>410</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -1146,14 +1234,17 @@
       <c r="A6" t="s">
         <v>32</v>
       </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
       <c r="C6" s="1">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D6">
-        <v>610</v>
+        <v>1182</v>
       </c>
       <c r="E6">
-        <v>324</v>
+        <v>652</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -1163,28 +1254,34 @@
       <c r="A7" t="s">
         <v>33</v>
       </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
       <c r="C7" s="1">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D7">
-        <v>1333</v>
+        <v>2723</v>
       </c>
       <c r="E7">
-        <v>324</v>
+        <v>652</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
       <c r="C8" s="1">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D8">
-        <v>610</v>
+        <v>1182</v>
       </c>
       <c r="E8">
-        <v>466</v>
+        <v>963</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -1194,39 +1291,48 @@
       <c r="A9" t="s">
         <v>34</v>
       </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
       <c r="C9" s="1">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D9">
-        <v>1333</v>
+        <v>2723</v>
       </c>
       <c r="E9">
-        <v>466</v>
+        <v>963</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
       <c r="C10" s="1">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D10">
-        <v>610</v>
+        <v>1182</v>
       </c>
       <c r="E10">
-        <v>608</v>
+        <v>1244</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
       <c r="C11" s="1">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D11">
-        <v>1333</v>
+        <v>2723</v>
       </c>
       <c r="E11">
         <v>608</v>
@@ -1239,14 +1345,17 @@
       <c r="A12" t="s">
         <v>35</v>
       </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
       <c r="C12" s="1">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D12">
-        <v>722</v>
+        <v>1407</v>
       </c>
       <c r="E12">
-        <v>760</v>
+        <v>1560</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
@@ -1256,15 +1365,17 @@
       <c r="A13" t="s">
         <v>35</v>
       </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
       <c r="C13" s="1">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D13">
-        <f>ROUND(D12+120.6,0)</f>
-        <v>843</v>
+        <v>1666</v>
       </c>
       <c r="E13">
-        <v>760</v>
+        <v>1560</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -1274,15 +1385,17 @@
       <c r="A14" t="s">
         <v>35</v>
       </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
       <c r="C14" s="1">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D21" si="0">ROUND(D13+120.6,0)</f>
-        <v>964</v>
+        <v>1925</v>
       </c>
       <c r="E14">
-        <v>760</v>
+        <v>1560</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
@@ -1292,15 +1405,17 @@
       <c r="A15" t="s">
         <v>35</v>
       </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
       <c r="C15" s="1">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>1085</v>
+        <v>2184</v>
       </c>
       <c r="E15">
-        <v>760</v>
+        <v>1560</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
@@ -1310,15 +1425,17 @@
       <c r="A16" t="s">
         <v>35</v>
       </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
       <c r="C16" s="1">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>1206</v>
+        <v>2443</v>
       </c>
       <c r="E16">
-        <v>760</v>
+        <v>1560</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
@@ -1328,15 +1445,17 @@
       <c r="A17" t="s">
         <v>35</v>
       </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
       <c r="C17" s="1">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>1327</v>
+        <v>2702</v>
       </c>
       <c r="E17">
-        <v>760</v>
+        <v>1560</v>
       </c>
       <c r="F17" t="s">
         <v>21</v>
@@ -1346,15 +1465,17 @@
       <c r="A18" t="s">
         <v>35</v>
       </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
       <c r="C18" s="1">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>1448</v>
+        <v>2961</v>
       </c>
       <c r="E18">
-        <v>760</v>
+        <v>1560</v>
       </c>
       <c r="F18" t="s">
         <v>22</v>
@@ -1364,15 +1485,17 @@
       <c r="A19" t="s">
         <v>35</v>
       </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
       <c r="C19" s="1">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
-        <v>1569</v>
+        <v>3220</v>
       </c>
       <c r="E19">
-        <v>760</v>
+        <v>1560</v>
       </c>
       <c r="F19" t="s">
         <v>23</v>
@@ -1382,15 +1505,17 @@
       <c r="A20" t="s">
         <v>35</v>
       </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
       <c r="C20" s="1">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
-        <v>1690</v>
+        <v>3479</v>
       </c>
       <c r="E20">
-        <v>760</v>
+        <v>1560</v>
       </c>
       <c r="F20" t="s">
         <v>24</v>
@@ -1400,15 +1525,17 @@
       <c r="A21" t="s">
         <v>35</v>
       </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
       <c r="C21" s="1">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>1811</v>
+        <v>3738</v>
       </c>
       <c r="E21">
-        <v>760</v>
+        <v>1560</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
@@ -1418,58 +1545,70 @@
       <c r="A22" t="s">
         <v>35</v>
       </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
       <c r="C22" s="1">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D22">
-        <v>2005</v>
+        <v>4205</v>
       </c>
       <c r="E22">
-        <v>760</v>
+        <v>1560</v>
       </c>
       <c r="F22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
       <c r="C23" s="1">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="D23">
-        <v>360</v>
+        <v>608</v>
       </c>
       <c r="E23">
-        <v>1030</v>
+        <v>2150</v>
       </c>
       <c r="F23" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
       <c r="C24" s="1">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="D24">
-        <f>D23+530</f>
-        <v>890</v>
+        <f>D23+1126</f>
+        <v>1734</v>
       </c>
       <c r="E24">
-        <v>1030</v>
+        <v>2150</v>
       </c>
       <c r="F24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
       <c r="C25" s="1">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25" si="1">D24+530</f>
-        <v>1420</v>
+        <f t="shared" ref="D25:D26" si="0">D24+1126</f>
+        <v>2860</v>
       </c>
       <c r="E25">
-        <v>1030</v>
+        <v>2150</v>
       </c>
       <c r="F25" t="s">
         <v>29</v>
@@ -1483,13 +1622,13 @@
         <v>51</v>
       </c>
       <c r="C26" s="1">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="D26">
-        <v>2050</v>
+        <v>4100</v>
       </c>
       <c r="E26">
-        <v>1030</v>
+        <v>2150</v>
       </c>
       <c r="F26" t="s">
         <v>30</v>

--- a/receiptSetting/批量录入发票模板.xlsx
+++ b/receiptSetting/批量录入发票模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\customReceipts\receiptSetting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE66839B-15C9-4839-8622-B0D73755E890}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10720C9D-A3B0-402F-B7B6-59D699B94C0E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{734AFDE5-6A00-4A3F-A4D6-6CA5376313B1}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="56">
   <si>
     <t>值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,10 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C:\Windows\Fonts\xjlFont.fon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>凭证字号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,6 +247,14 @@
   </si>
   <si>
     <t>C:\Windows\Fonts\msyh.ttc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.\Fonts\FZHTJW.ttf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.\Fonts\书体坊兰亭体.ttf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -689,7 +693,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2">
         <v>48</v>
@@ -706,7 +710,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3">
         <v>48</v>
@@ -723,7 +727,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4">
         <v>48</v>
@@ -743,7 +747,7 @@
         <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5">
         <v>48</v>
@@ -763,7 +767,7 @@
         <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>48</v>
@@ -783,7 +787,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>48</v>
@@ -803,7 +807,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8">
         <v>48</v>
@@ -823,7 +827,7 @@
         <v>25000</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9">
         <v>48</v>
@@ -843,7 +847,7 @@
         <v>12450</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10">
         <v>48</v>
@@ -863,7 +867,7 @@
         <v>2586</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11">
         <v>48</v>
@@ -880,7 +884,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12">
         <v>48</v>
@@ -897,7 +901,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13">
         <v>48</v>
@@ -915,7 +919,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14">
         <v>48</v>
@@ -933,7 +937,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15">
         <v>48</v>
@@ -951,7 +955,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>48</v>
@@ -969,7 +973,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17">
         <v>48</v>
@@ -986,7 +990,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18">
         <v>48</v>
@@ -1003,7 +1007,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19">
         <v>48</v>
@@ -1020,7 +1024,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <v>48</v>
@@ -1037,7 +1041,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21">
         <v>48</v>
@@ -1054,7 +1058,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22">
         <v>48</v>
@@ -1071,7 +1075,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>48</v>
@@ -1088,10 +1092,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24">
         <v>48</v>
@@ -1103,7 +1107,7 @@
         <v>181</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1121,7 +1125,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="B11" sqref="B11:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1563,7 +1567,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="1">
         <v>120</v>
@@ -1580,7 +1584,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" s="1">
         <v>120</v>
@@ -1598,13 +1602,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" s="1">
         <v>120</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25:D26" si="0">D24+1126</f>
+        <f t="shared" ref="D25" si="0">D24+1126</f>
         <v>2860</v>
       </c>
       <c r="E25">
@@ -1619,7 +1623,7 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C26" s="1">
         <v>120</v>
